--- a/GrainWessels.xlsx
+++ b/GrainWessels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GrainWessels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85520DE-F061-4D14-8565-F9128879040D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6666182D-A910-4C2C-88BA-27D682E60297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="DataNew" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataNew!$A$1:$I$304</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataNew!$A$1:$I$323</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="314">
   <si>
     <t>Outbound Sequence</t>
   </si>
@@ -962,9 +962,6 @@
   </si>
   <si>
     <t>BURAK DEVAL</t>
-  </si>
-  <si>
-    <t>Tuirkiye</t>
   </si>
   <si>
     <t>NEW ISLAND</t>
@@ -1240,8 +1237,8 @@
   </sheetPr>
   <dimension ref="A1:I323"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J314" sqref="J314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10357,8 +10354,8 @@
       <c r="D322" t="s">
         <v>10</v>
       </c>
-      <c r="E322" t="s">
-        <v>313</v>
+      <c r="E322" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="F322" t="s">
         <v>11</v>
@@ -10375,7 +10372,7 @@
         <v>285</v>
       </c>
       <c r="B323" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C323">
         <v>9258349</v>
@@ -10397,7 +10394,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I304" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:I323" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GrainWessels.xlsx
+++ b/GrainWessels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GrainWessels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAC4FE7-A9D7-4DFE-A205-1E453EA886ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C60E37-5D9A-4D1C-8603-F909D3370C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/GrainWessels.xlsx
+++ b/GrainWessels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GrainWessels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C60E37-5D9A-4D1C-8603-F909D3370C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F544A4B6-D8EB-4F2B-B556-79C393DF0578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1622,8 +1622,8 @@
   </sheetPr>
   <dimension ref="A1:L474"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A418" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G434" sqref="G434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18013,7 +18013,7 @@
         <v>10</v>
       </c>
       <c r="E434" t="s">
-        <v>389</v>
+        <v>84</v>
       </c>
       <c r="F434" t="s">
         <v>64</v>

--- a/GrainWessels.xlsx
+++ b/GrainWessels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GrainWessels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F544A4B6-D8EB-4F2B-B556-79C393DF0578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D93C429-80EE-42A7-B074-C66905ACFB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1623,7 +1623,7 @@
   <dimension ref="A1:L474"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A418" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G434" sqref="G434"/>
+      <selection activeCell="E435" sqref="E435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18013,7 +18013,7 @@
         <v>10</v>
       </c>
       <c r="E434" t="s">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="F434" t="s">
         <v>64</v>
